--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
   <si>
     <t>3주차</t>
   </si>
@@ -197,14 +197,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>보그 PJ / 파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 와이어프레이밍</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -214,21 +206,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / SQL DB 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery 응용 / React 응용
-JSP응용 / 스프링응용 / AWS 구축</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HTML5 + CSS3 기본 및 응용연습
 Javascript 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -285,11 +262,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>jQuery 응용 / React 응용
-자바기본 + JSP응용 / SQL DB 응용</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>풀스택 기반 단일페이지 웹 어플개발</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -299,13 +271,70 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>JS응용 / jQuery 기본 및 응용
-React 기본</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용 / React 응용
-자바기본 / SQL연습</t>
+JSP응용 / 스프링기본 / AWS 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용 / 스프링응용 / AWS 서버구축</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+MVC게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+스프링부트 게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비 PJ v2. / 보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>JS응용 / jQuery 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 기본
+서버 환경셋팅 / 자바기본 / SQL연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 기본
+자바기본 + JSP기본 / SQL DB 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+로그인 / 회원가입 / 기본게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일럿 PJ
+기본 DB커넥션 페이지연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용
+자바기본 / SQL DB 기본</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 기본
+JSP응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery 응용 / React 응용
+JSP응용</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -669,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -721,6 +750,120 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,139 +882,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1207,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1228,412 +1242,412 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
     <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="71"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G4" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="72" t="s">
+      <c r="I4" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="34" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="75"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="67" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="35"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" s="3" customFormat="1" ht="35.1" customHeight="1">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="30">
         <v>44805</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="30">
         <v>44806</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="32">
         <f t="shared" ref="F6:F13" si="0">DAYS360(C6,E6)+1</f>
         <v>2</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="38" t="s">
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="42"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="20">
         <v>44809</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="20">
         <v>44812</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="28" t="s">
+      <c r="H7" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="32"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="20">
         <v>44817</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="20">
         <v>44820</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="28" t="s">
+      <c r="H8" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="J8" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="33"/>
+      <c r="J8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="37">
         <v>44823</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="37">
         <v>44827</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="45" t="s">
+      <c r="H9" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" s="49"/>
+      <c r="J9" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="30">
         <v>44830</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="30">
         <v>44834</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="32">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="38" t="s">
+      <c r="H10" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" s="58"/>
+      <c r="J10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="51"/>
     </row>
     <row r="11" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A11" s="9"/>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="20">
         <v>44838</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="20">
         <v>44841</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="G11" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="25"/>
+      <c r="J11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="20">
         <v>44845</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="20">
         <v>44848</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K12" s="23"/>
+      <c r="G12" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="37">
         <v>44851</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="37">
         <v>44855</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="24"/>
+      <c r="J13" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="30">
         <v>44858</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="61">
+      <c r="E14" s="30">
         <v>44862</v>
       </c>
-      <c r="F14" s="63">
+      <c r="F14" s="32">
         <f>DAYS360(C14,E14)+1</f>
         <v>5</v>
       </c>
-      <c r="G14" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="65" t="s">
+      <c r="G14" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="66"/>
+      <c r="J14" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="62"/>
     </row>
     <row r="15" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="20">
         <v>44865</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="20">
         <v>44869</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="22">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="23" t="s">
+      <c r="H15" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="25" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1">
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="9"/>
+      <c r="B16" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="56">
         <v>44872</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="56">
         <v>44876</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="58">
         <f>DAYS360(C16,E16)+1</f>
         <v>5</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="K16" s="23"/>
+      <c r="H16" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="61"/>
     </row>
     <row r="17" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B17" s="12" t="s">
@@ -1656,46 +1670,46 @@
         <v>32</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="59" t="s">
-        <v>51</v>
-      </c>
-      <c r="K17" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="I17" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="18"/>
     </row>
     <row r="18" spans="2:11" ht="35.1" customHeight="1">
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="51">
+      <c r="C18" s="44">
         <v>44886</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="44">
         <v>44890</v>
       </c>
-      <c r="F18" s="53">
+      <c r="F18" s="46">
         <f>DAYS360(C18,E18)+1</f>
         <v>5</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="J18" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="56"/>
+      <c r="H18" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="49"/>
     </row>
     <row r="19" spans="2:11" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
@@ -1718,15 +1732,15 @@
         <v>35</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="K19" s="17"/>
     </row>
     <row r="20" spans="2:11" ht="35.1" customHeight="1">
       <c r="B20" s="8" t="s">
@@ -1749,15 +1763,15 @@
         <v>35</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="23"/>
+        <v>64</v>
+      </c>
+      <c r="K20" s="17"/>
     </row>
     <row r="21" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B21" s="12" t="s">
@@ -1780,13 +1794,13 @@
         <v>35</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="18" t="s">
         <v>38</v>
       </c>
     </row>

--- a/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
+++ b/00.커리큐럼/GITA_2022자바 기반 풀스택 개발자 데뷔 과정_주단위상세일정.xlsx
@@ -140,9 +140,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>스프링 기반 웹프로그래밍</t>
-  </si>
-  <si>
     <t>프론트엔드 프레임워크활용
 풀스택 기반 단일페이지 웹 어플개발</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -282,11 +279,6 @@
   </si>
   <si>
     <t>파일럿 PJ
-MVC게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ
 스프링부트 게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -309,20 +301,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>파일럿 PJ
-로그인 / 회원가입 / 기본게시판</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>보그 PJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일럿 PJ
-기본 DB커넥션 페이지연습</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>jQuery 응용
 자바기본 / SQL DB 기본</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -335,6 +313,30 @@
   <si>
     <t>jQuery 응용 / React 응용
 JSP응용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스 활용
+웹프로그래밍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ
+기본 DB커넥션 페이지연습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ
+MVC게시판</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>보그 PJ / Drama 리스트
+로그인 / 회원가입 / 기본게시판</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -698,7 +700,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,61 +857,58 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1222,7 +1221,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1240,76 +1239,76 @@
     <col min="11" max="11" width="18.375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.25" thickBot="1"/>
-    <row r="2" spans="1:11" ht="53.25" customHeight="1" thickBot="1">
-      <c r="B2" s="64" t="s">
+    <row r="1" spans="2:11" ht="17.25" thickBot="1"/>
+    <row r="2" spans="2:11" ht="53.25" customHeight="1" thickBot="1">
+      <c r="B2" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
-    </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="2:11" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="69" t="s">
+    <row r="4" spans="2:11" s="3" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67" t="s">
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="67" t="s">
+      <c r="G4" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="67" t="s">
+      <c r="I4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="67"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B5" s="70"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" s="3" customFormat="1" ht="26.25" customHeight="1" thickBot="1">
+      <c r="B5" s="62"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>39</v>
       </c>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="35.1" customHeight="1">
+    <row r="6" spans="2:11" s="3" customFormat="1" ht="35.1" customHeight="1">
       <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
@@ -1336,7 +1335,7 @@
       </c>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="35.1" customHeight="1">
+    <row r="7" spans="2:11" ht="35.1" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>21</v>
       </c>
@@ -1357,17 +1356,17 @@
         <v>27</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J7" s="24" t="s">
         <v>25</v>
       </c>
       <c r="K7" s="25"/>
     </row>
-    <row r="8" spans="1:11" ht="35.1" customHeight="1">
+    <row r="8" spans="2:11" ht="35.1" customHeight="1">
       <c r="B8" s="19" t="s">
         <v>0</v>
       </c>
@@ -1388,17 +1387,17 @@
         <v>28</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="26"/>
     </row>
-    <row r="9" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+    <row r="9" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B9" s="36" t="s">
         <v>1</v>
       </c>
@@ -1416,20 +1415,20 @@
         <v>5</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J9" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="42"/>
     </row>
-    <row r="10" spans="1:11" ht="35.1" customHeight="1">
+    <row r="10" spans="2:11" ht="35.1" customHeight="1">
       <c r="B10" s="29" t="s">
         <v>2</v>
       </c>
@@ -1450,17 +1449,17 @@
         <v>29</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J10" s="50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="51"/>
     </row>
-    <row r="11" spans="1:11" ht="35.1" customHeight="1">
+    <row r="11" spans="2:11" ht="35.1" customHeight="1">
       <c r="B11" s="19" t="s">
         <v>3</v>
       </c>
@@ -1478,20 +1477,20 @@
         <v>4</v>
       </c>
       <c r="G11" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="26"/>
     </row>
-    <row r="12" spans="1:11" ht="35.1" customHeight="1">
+    <row r="12" spans="2:11" ht="35.1" customHeight="1">
       <c r="B12" s="19" t="s">
         <v>4</v>
       </c>
@@ -1509,20 +1508,20 @@
         <v>4</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12" s="25"/>
     </row>
-    <row r="13" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+    <row r="13" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B13" s="36" t="s">
         <v>5</v>
       </c>
@@ -1540,20 +1539,20 @@
         <v>5</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J13" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" s="54"/>
-    </row>
-    <row r="14" spans="1:11" ht="35.1" customHeight="1">
+        <v>66</v>
+      </c>
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="2:11" ht="35.1" customHeight="1">
       <c r="B14" s="29" t="s">
         <v>6</v>
       </c>
@@ -1571,20 +1570,20 @@
         <v>5</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J14" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" ht="35.1" customHeight="1">
+        <v>67</v>
+      </c>
+      <c r="K14" s="54"/>
+    </row>
+    <row r="15" spans="2:11" ht="35.1" customHeight="1">
       <c r="B15" s="19" t="s">
         <v>7</v>
       </c>
@@ -1605,82 +1604,82 @@
         <v>30</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>72</v>
       </c>
       <c r="J15" s="24" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="35.1" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="35.1" customHeight="1">
+      <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="20">
         <v>44872</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="20">
         <v>44876</v>
       </c>
-      <c r="F16" s="58">
+      <c r="F16" s="22">
         <f>DAYS360(C16,E16)+1</f>
         <v>5</v>
       </c>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
-      <c r="B17" s="12" t="s">
+      <c r="H16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="64">
         <v>44879</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="64">
         <v>44883</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="66">
         <f>DAYS360(C17,E17)+1</f>
         <v>5</v>
       </c>
-      <c r="G17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="2:11" ht="35.1" customHeight="1">
+      <c r="G17" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="68" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K17" s="69"/>
+    </row>
+    <row r="18" spans="1:11" ht="35.1" customHeight="1">
       <c r="B18" s="43" t="s">
         <v>10</v>
       </c>
@@ -1698,20 +1697,20 @@
         <v>5</v>
       </c>
       <c r="G18" s="47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K18" s="49"/>
     </row>
-    <row r="19" spans="2:11" ht="35.1" customHeight="1">
+    <row r="19" spans="1:11" ht="35.1" customHeight="1">
       <c r="B19" s="8" t="s">
         <v>11</v>
       </c>
@@ -1729,20 +1728,20 @@
         <v>5</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="2:11" ht="35.1" customHeight="1">
+    <row r="20" spans="1:11" ht="35.1" customHeight="1">
       <c r="B20" s="8" t="s">
         <v>12</v>
       </c>
@@ -1760,20 +1759,20 @@
         <v>5</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20" s="17"/>
     </row>
-    <row r="21" spans="2:11" ht="35.1" customHeight="1" thickBot="1">
+    <row r="21" spans="1:11" ht="35.1" customHeight="1" thickBot="1">
       <c r="B21" s="12" t="s">
         <v>13</v>
       </c>
@@ -1791,20 +1790,20 @@
         <v>1</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="17.25" thickBot="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17.25" thickBot="1">
       <c r="C22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="4">
